--- a/analysis/somerton_2002/data/best_models.xlsx
+++ b/analysis/somerton_2002/data/best_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sean.rohan\Work\afsc\sratio\analysis\somerton_2002\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE648CAF-25FB-499B-BC33-C6B949C3EF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35B81B0-DCB8-4F47-BDE9-BB963FE49578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="3555" windowWidth="16965" windowHeight="15345" xr2:uid="{15F83652-5193-4201-9709-5BFFF6625622}"/>
+    <workbookView xWindow="27480" yWindow="3900" windowWidth="13155" windowHeight="15345" xr2:uid="{15F83652-5193-4201-9709-5BFFF6625622}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>common_name</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Proportion</t>
   </si>
   <si>
-    <t>bb8</t>
-  </si>
-  <si>
     <t>Ratio</t>
   </si>
   <si>
@@ -74,12 +71,6 @@
     <t>Tanner crab (male)</t>
   </si>
   <si>
-    <t>bb11</t>
-  </si>
-  <si>
-    <t>nb17</t>
-  </si>
-  <si>
     <t>ccr_bin1</t>
   </si>
   <si>
@@ -89,63 +80,30 @@
     <t>nb10</t>
   </si>
   <si>
-    <t>bb2</t>
-  </si>
-  <si>
     <t>ccr_bin2</t>
   </si>
   <si>
-    <t>lognormal1</t>
-  </si>
-  <si>
     <t>red king crab (male)</t>
   </si>
   <si>
-    <t>ccr_beta12</t>
-  </si>
-  <si>
     <t>OLS mean</t>
   </si>
   <si>
     <t>snow crab (female)</t>
   </si>
   <si>
-    <t>bb4</t>
-  </si>
-  <si>
-    <t>ccr_bin4</t>
-  </si>
-  <si>
     <t>snow crab (male)</t>
   </si>
   <si>
-    <t>nb21</t>
-  </si>
-  <si>
     <t>bb1</t>
   </si>
   <si>
     <t>reason</t>
   </si>
   <si>
-    <t>Second hightst RMSE and better residual pattern than nb9</t>
-  </si>
-  <si>
-    <t>bin1</t>
-  </si>
-  <si>
-    <t>Third highest RMSE and better residual patterns a lot less severe than bb8 and bb3</t>
-  </si>
-  <si>
-    <t>Lowest RMSE. Some residual violations but other CCR models with similar RMSE have the same issues</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lowest RMSE. </t>
   </si>
   <si>
-    <t>Lowest RMSE. Fits and residuals look great</t>
-  </si>
-  <si>
     <t>Lowest RMSE. Fit looks good, maybe a slight residual pattern (ns)</t>
   </si>
   <si>
@@ -161,12 +119,6 @@
     <t>Lowest RMSE. Looks good. Dharma plots not generating; residuals seem OK</t>
   </si>
   <si>
-    <t>Lowest RMSE. No significant deviation from residual assumptions, but potentially a slight skew.</t>
-  </si>
-  <si>
-    <t>Lowest RMSE. Residuals are slightly wonky but no severe violation</t>
-  </si>
-  <si>
     <t>Second lowest RMSE. pois6 had strong resdiual patterns.</t>
   </si>
   <si>
@@ -179,31 +131,67 @@
     <t>Lowest RMSE, heavy tails?</t>
   </si>
   <si>
-    <t>Lowest RMSE, residuals look great</t>
-  </si>
-  <si>
-    <t>nb18</t>
-  </si>
-  <si>
     <t>Fifth highest RMSE-- way down the list. nb5, nb6, pois5, nb1 had severe residual patterns.</t>
   </si>
   <si>
     <t>Lowest RMSE, but CCR models generally had wonky residual patterns.</t>
   </si>
   <si>
-    <t>Fourth highest RMSE. OLS mean, lognormal1, and lognormal2 had wonky residual patterns</t>
-  </si>
-  <si>
     <t>Lowest RMSE. Count models all had evidence of residual patterns.</t>
   </si>
   <si>
     <t>Lowest RMSE. Some residual pattern.</t>
   </si>
   <si>
-    <t>ccr_beta7</t>
-  </si>
-  <si>
-    <t>Third highest RMSE. ccr_bin2 and ccr_beta2 had residual patterns.</t>
+    <t>bb7</t>
+  </si>
+  <si>
+    <t>nb9</t>
+  </si>
+  <si>
+    <t>nb6</t>
+  </si>
+  <si>
+    <t>ccr_beta8</t>
+  </si>
+  <si>
+    <t>ccr_bin3</t>
+  </si>
+  <si>
+    <t>nb11</t>
+  </si>
+  <si>
+    <t>Second highest RMSE and better residual pattern than nb5</t>
+  </si>
+  <si>
+    <t>Third hightest RMSE and better residual pattner than bb6 or bb3</t>
+  </si>
+  <si>
+    <t>Lowest RMSE</t>
+  </si>
+  <si>
+    <t>Lowest RMSE, some residual violations but other models with similar RMSE also have residual patterns</t>
+  </si>
+  <si>
+    <t>bb5</t>
+  </si>
+  <si>
+    <t>Fourth highest RMSE; bin3, bb5, bin2 had residual patterns</t>
+  </si>
+  <si>
+    <t>ccr_beta5</t>
+  </si>
+  <si>
+    <t>Third lowest RMSE. ccr_bin2 and ccr_beta2 had residual patterns</t>
+  </si>
+  <si>
+    <t>Fourth highest RMSE. OLS mean, lognormal1, and lognormal2 had violations</t>
+  </si>
+  <si>
+    <t>bb6</t>
+  </si>
+  <si>
+    <t>Lowest RMSE, residuals OK, maybe minor violation</t>
   </si>
 </sst>
 </file>
@@ -578,7 +566,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -608,10 +596,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -622,10 +610,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,13 +621,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,206 +635,206 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
         <v>49</v>
@@ -854,86 +842,86 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
